--- a/Error_update_Office_Access object salesforce.xlsx
+++ b/Error_update_Office_Access object salesforce.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sts-kien.ngoduc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73F28B9-0689-4B3A-A9FB-1067DDE629E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBA9E3B-0C65-4336-B8DA-2B9391FB85D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0AF52580-CD48-403F-8085-A4C1DDA2212E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="12450" xr2:uid="{0AF52580-CD48-403F-8085-A4C1DDA2212E}"/>
   </bookViews>
   <sheets>
-    <sheet name="rakuten-ifa-sf-sapi" sheetId="1" r:id="rId1"/>
+    <sheet name="Main process" sheetId="4" r:id="rId1"/>
+    <sheet name="ifa-business-report-xapi" sheetId="2" r:id="rId2"/>
+    <sheet name="rakuten-ifa-sf-sapi" sheetId="1" r:id="rId3"/>
+    <sheet name="query" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Tim kiem project co lien quan den object CWR_Office_Access__c</t>
   </si>
@@ -71,13 +74,143 @@
     <t>(3)</t>
   </si>
   <si>
-    <t>Xu ly mapping data tu coredb toi salesforce object</t>
+    <t>(4)</t>
   </si>
   <si>
-    <t>CWR_Office_AccessKey__c: la external id</t>
+    <t>Project rakuten-ifa-business-report-xapi</t>
   </si>
   <si>
-    <t>(4)</t>
+    <t>Batch hoặc Route Api được gọi tới Api trong rakuten-ifa-sf-sapi [put:\access-sync:application\json:rakuten-ifa-sf-sapi-config]</t>
+  </si>
+  <si>
+    <t>(1) [rakuten-ifa-business-report-xapi] project</t>
+  </si>
+  <si>
+    <t>(3) impl-access-rights-sync:\mainflow</t>
+  </si>
+  <si>
+    <t>(4) process-access-rights-sync-subflow</t>
+  </si>
+  <si>
+    <t>(2) get:\access-rights-sync:rakuten-ifa-business-report-xapi-config =&gt; Route Api</t>
+  </si>
+  <si>
+    <t>(2) access-rights-scheduler-Flow =&gt; Scheduler</t>
+  </si>
+  <si>
+    <t>(5) GET /rakuten-ifa-business-report-papi/api/access-rights-sync-process</t>
+  </si>
+  <si>
+    <t>(6) [rakuten-ifa-business-report-papi] project</t>
+  </si>
+  <si>
+    <t>(7) get:\access-rights-trigger:rakuten-ifa-business-report-papi-config</t>
+  </si>
+  <si>
+    <t>(8) impl-access-rights-batch-Flow</t>
+  </si>
+  <si>
+    <t>(9) sys-ifa-access-rights-sf-sapi:\put-access-rights</t>
+  </si>
+  <si>
+    <t>2. Phân tích ở xử lý (8) impl-access-rights-batch-Flow, đây là xử lý chính</t>
+  </si>
+  <si>
+    <t>Nếu chạy từ Scheduler thì sẽ lấy giá trị default</t>
+  </si>
+  <si>
+    <t>Nếu chạy từ Route Api thì sử dụng queryParams</t>
+  </si>
+  <si>
+    <t>[rakuten-ifa-oracle-sapi] project</t>
+  </si>
+  <si>
+    <t>server.tns.access-rights: "1"</t>
+  </si>
+  <si>
+    <t>%dw 2.0
+output application/json
+---
+{
+ fromDate: if(not isBlank(attributes.queryParams.fromDate)) attributes.queryParams.fromDate as String {format: "yyyy-MM-dd"} ++  " 00:00:00" else   (now() - |P1D|) as String {format: "yyyy-MM-dd"} ++  " 00:00:00",
+ toDate:  if(not isBlank(attributes.queryParams.toDate)) attributes.queryParams.toDate as String {format: "yyyy-MM-dd"} ++  " 23:59:59"  else   (now() - |P1D|) as String {format: "yyyy-MM-dd"} ++  " 23:59:59" 
+ }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%dw 2.0
+import * from dw::core::Dates
+output application/json
+var initialLoadFlg =  attributes.queryParams.initialLoadFlg default false
+var initialLoad = "select * from  (
+	select 
+			A.IFA_CORP_CD, 
+			M.IFA_CHARGE_CD, 
+			A.OFFICE_CD,OFFICE_AUTH_FLG, 
+			A.UPDATE_DT, 
+			A.CREATE_DT  
+  	FROM
+    	IFA_OFFICE_AUTH A,
+    	IFA_CHARGE_MSTR M
+   WHERE 
+         A.IFA_CHARGE_CD = M.RELAY_IFA_CHARGE_CD(+) AND
+         A.IFA_CORP_CD = M.IFA_CORP_CD(+) AND
+         (A.CREATE_DT BETWEEN  TO_DATE(:fromDate,'YYYY-MM-DD HH24:MI:SS') AND TO_DATE(:toDate,'YYYY-MM-DD HH24:MI:SS') 
+        )) Z 
+      WHERE Z.IFA_CHARGE_CD IS NOT NULL "
+var deltaLoad = "select * from  (
+	select 
+			A.IFA_CORP_CD, 
+			M.IFA_CHARGE_CD, 
+			A.OFFICE_CD,OFFICE_AUTH_FLG, 
+			A.UPDATE_DT, 
+			A.CREATE_DT  
+  	FROM
+    	IFA_OFFICE_AUTH A,
+    	IFA_CHARGE_MSTR M
+   WHERE 
+         A.IFA_CHARGE_CD = M.RELAY_IFA_CHARGE_CD(+) AND
+         A.IFA_CORP_CD = M.IFA_CORP_CD(+) AND
+         (A.CREATE_DT BETWEEN  TO_DATE(:fromDate,'YYYY-MM-DD HH24:MI:SS') AND TO_DATE(:toDate,'YYYY-MM-DD HH24:MI:SS') 
+         OR          
+          A.UPDATE_DT BETWEEN  TO_DATE(:fromDate,'YYYY-MM-DD HH24:MI:SS') AND TO_DATE(:toDate,'YYYY-MM-DD HH24:MI:SS'))) Z 
+      WHERE Z.IFA_CHARGE_CD IS NOT NULL"
+---
+if(initialLoadFlg) initialLoad 
+		else deltaLoad
+</t>
+  </si>
+  <si>
+    <t>Xử lý lấy data từ oracle db</t>
+  </si>
+  <si>
+    <t>%dw 2.0
+import * from dw::util::Coercions
+output application/json
+---
+(flatten(payload.payload) default []) map{
+	"corpCd": $.IFA_CORP_CD,
+	"chargeCd": $.IFA_CHARGE_CD,
+	"officeCd": $.OFFICE_CD,
+	"officeAuthFlg": toString($.OFFICE_AUTH_FLG)
+}</t>
+  </si>
+  <si>
+    <t>Trả về danh sách dữ liệu với các thuộc tính được map</t>
+  </si>
+  <si>
+    <t>%dw 2.0
+output application/json
+---
+if(not isEmpty(payload))   
+{
+    "mgrUser": payload.corpCd ++ "-" ++ payload.chargeCd,
+    "salesOffice": payload.corpCd ++ "-" ++ payload.officeCd,
+    "officeAuthFlg": payload.officeAuthFlg,
+    "officeAccessKey": payload.corpCd ++ "-" ++ payload.officeCd ++ "-" ++ payload.chargeCd
+} else []</t>
+  </si>
+  <si>
+    <t>Đẩy dữ liệu lấy được sang Api thuộc project [rakuten-ifa-sf-sapi]</t>
   </si>
 </sst>
 </file>
@@ -122,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -130,17 +263,149 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -160,6 +425,2215 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE7E349-578E-4EA2-8FAF-B341F00E57CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="1885950"/>
+          <a:ext cx="1743075" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Job</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Scheduler: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>access-rights-scheduler-Flow</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[cron:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>access.rights.batch: "0 20 1 ? * *"]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C4D677-E479-412E-90DF-7A0718FC6135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8048624" y="2724150"/>
+          <a:ext cx="3352801" cy="1485899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Thực</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> hiện chuyển đổi dữ liệu lấy được từ oracle db map sang 1 object mới:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>"corpCd": $.IFA_CORP_CD,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>"chargeCd": $.IFA_CHARGE_CD,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>"officeCd": $.OFFICE_CD,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>"officeAuthFlg":toString($.OFFICE_AUTH_FLG)	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="49" name="Group 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB60D1D-DFFB-ED40-1053-BB7C5E992EE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2333626" y="485775"/>
+          <a:ext cx="2686050" cy="4057650"/>
+          <a:chOff x="4819651" y="1409700"/>
+          <a:chExt cx="2686050" cy="4057650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1AFA311-B34A-4357-BC8A-A6A36262C221}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5200650" y="3457575"/>
+            <a:ext cx="1743075" cy="676275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Sử</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> dụng oracle db 1 (tns.1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E6391B6-D874-4D5C-AF22-B5A5D9272B4B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5210175" y="4476750"/>
+            <a:ext cx="2114550" cy="676275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Param</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>fromDate:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> 00:00:00 ngày trước đó</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>toDate: 23:59:59 ngày trước đó</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="Rectangle 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9EC752-0339-4E56-BB8C-FE70EB0D1EB3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5133975" y="1562100"/>
+            <a:ext cx="2114550" cy="1628775"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Query lấy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> ra các cột sau:</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>{</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>IFA_CORP_CD,</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>IFA_CHARGE_CD,</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>OFFICE_CD,</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>OFFICE_AUTH_FLG, </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>UPDATE_DT, </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>CREATE_DT</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>}</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="Rectangle 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7108B609-72E5-1005-0EFE-A1B43AADEA85}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4819651" y="1409700"/>
+            <a:ext cx="2686050" cy="4057650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795861F9-5574-AD1C-60CD-106E1DEC6567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="3"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639051" y="3467100"/>
+          <a:ext cx="409573" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>159543</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B1EBB77-9277-4164-9BFB-69091233C65F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11827668" y="2726532"/>
+          <a:ext cx="4288632" cy="1483518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Chuyển</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> đổi dữ liệu bằng việc kết nối các field ở object trước đó sang object mới:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    "mgrUser": payload.corpCd ++ "-" ++ payload.chargeCd,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    "salesOffice": payload.corpCd ++ "-" ++ payload.officeCd,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    "officeAuthFlg": payload.officeAuthFlg,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>    "officeAccessKey": payload.corpCd ++ "-" ++ payload.officeCd ++ "-" ++ payload.chargeCd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>159543</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>39291</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0358126D-9B73-4C97-A369-47DF891FC3B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11401425" y="3467100"/>
+          <a:ext cx="426243" cy="1191"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6442893D-E8F6-1BAB-4D99-78F9477C7918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="2324100"/>
+          <a:ext cx="304801" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>169068</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{457732A1-3E24-41D1-A56C-8E094FF5836B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11837193" y="4641617"/>
+          <a:ext cx="4288632" cy="644758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Lấy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Id từ object User trên SF với điều kiện </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tx_ifa_person_key__c = ':mgrUser'</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>160734</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>170259</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69617</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7476BF8-5156-4D0B-850A-6A613026ED0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="54" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13971984" y="4210050"/>
+          <a:ext cx="9525" cy="431567"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>178593</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>136291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rectangle 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F5E3E8-B062-4EB9-A73B-CAA9B3E74750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11846718" y="5660791"/>
+          <a:ext cx="4288632" cy="1349609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Gán</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> lại dữ liệu cho mgrUser như sau:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"mgrUser": vars.userId,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"salesOffice": payload.salesOffice,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"officeAuthFlg": payload.officeAuthFlg,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"officeAccessKey": payload.officeAccessKey</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>170259</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>179784</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>136291</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F48973-26E4-4ED7-8563-2FAD1E1365A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="2"/>
+          <a:endCxn id="59" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13981509" y="5286375"/>
+          <a:ext cx="9525" cy="374416"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>188118</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rectangle 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31764DBA-AD62-46B7-8674-677C6E1998E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11856243" y="7441966"/>
+          <a:ext cx="4288632" cy="1349609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Map</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> dữ liệu vào object CWR_Office_Access__c trên SF:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"CWR_MgrUser__c": $.mgrUser,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"CWR_SalesOffice__r": {"CWR_Office_key__c": $.salesOffice},</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"CWR_Office_AuthFlg__c": $.officeAuthFlg,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"CWR_Office_AccessKey__c": $.officeAccessKey</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>179784</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>189309</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12466</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C943A2F-7A8E-4637-ACA3-29836F23A6DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="2"/>
+          <a:endCxn id="63" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13991034" y="7010400"/>
+          <a:ext cx="9525" cy="431566"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1616020" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="TextBox 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECCA9BD-F957-3057-9EA8-58CC356C4FCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="228600"/>
+          <a:ext cx="1616020" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Xử</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> lý lấy data từ oracle db</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>173258</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>143320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3EC5DE-4229-A105-DEF4-BA605BF8562F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="4781550"/>
+          <a:ext cx="12955808" cy="3191320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114491</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>143054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A028CC80-C652-B0E7-BBA1-9525F403A327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="8210550"/>
+          <a:ext cx="1371791" cy="1286054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>29515</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBFE511-7A16-A41C-4C21-7589887D91BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="8210550"/>
+          <a:ext cx="6735115" cy="1038370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171620</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>181186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C9E0D0-08B3-492B-9C6E-B81E75F283FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="9925050"/>
+          <a:ext cx="1219370" cy="1514686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>125071</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>105135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A30160-1F64-D25F-8A56-452AFDE571EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="9925050"/>
+          <a:ext cx="8926171" cy="2581635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9702</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>162134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF381FA-BB85-2458-28BB-5796C434BD31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="12782550"/>
+          <a:ext cx="1267002" cy="1495634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>162854</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>66817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979801EC-AAED-1637-68DE-B49AA38AD3D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="12782550"/>
+          <a:ext cx="6658904" cy="1019317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>67152</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EDC16B-6754-71D3-FB06-A7717E0957D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="13925550"/>
+          <a:ext cx="3419952" cy="1714739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>20691</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3ACA40-53B3-D545-E8E9-D7E8E7CED8E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="15830550"/>
+          <a:ext cx="11755491" cy="1533739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>38924</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>143267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC0FC1C-61E4-88D2-F81A-D49004D924F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="19640550"/>
+          <a:ext cx="5906324" cy="2810267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>409</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>105029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1794486-5A82-2D43-9257-9AEA0FFA0FE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="22688550"/>
+          <a:ext cx="2934109" cy="1819529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9643</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>114449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0516F6E2-5A1B-B834-5131-F994DF10577E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="24784050"/>
+          <a:ext cx="847843" cy="1066949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>143655</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>19398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF946BFF-C4F2-FB0F-CBEE-895C6CA8F9AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="27451050"/>
+          <a:ext cx="5591955" cy="2495898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>181146</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>19239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E4CA04B-5D66-7F3A-FCF5-F24779B270F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="30118050"/>
+          <a:ext cx="1228896" cy="1352739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>105141</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>133581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167F5478-CED7-3466-7E00-9551065DC18C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="32404050"/>
+          <a:ext cx="2619741" cy="1657581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -390,55 +2864,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>221308</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>175396</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6510C1FB-4440-6A20-62B4-C29D5FCDA686}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1463040" y="6652260"/>
-          <a:ext cx="3787468" cy="1569856"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
@@ -505,76 +2930,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>156374</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE80AC1-187E-5DDE-34D1-E5C7760B0267}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="2"/>
-          <a:endCxn id="6" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3356774" y="4495800"/>
-          <a:ext cx="1969606" cy="2156460"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>122740</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>76633</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -591,7 +2957,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -617,13 +2983,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -683,13 +3049,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -742,13 +3108,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -808,13 +3174,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -879,6 +3245,251 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114713</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA63AF5-36BC-678B-6588-B036C38471FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="6667500"/>
+          <a:ext cx="2962688" cy="1743318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>10199</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71290C59-029C-7E1D-DC13-C4AD34F1DF35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="6667500"/>
+          <a:ext cx="4829849" cy="1162212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>105309</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A1A176-2CA9-71F4-B7EC-3CB69BD13576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="8001000"/>
+          <a:ext cx="3829584" cy="1781424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>143048</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18816A64-2443-E227-4102-71677DB897EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="10096500"/>
+          <a:ext cx="1238423" cy="1190791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>191169</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>66950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24E94AE-5459-0C02-78E9-A0058B2EC53E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="10096500"/>
+          <a:ext cx="4791744" cy="1971950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1200,87 +3811,1319 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F126CCBB-E89B-4012-91B9-284D5C9D876A}">
-  <dimension ref="B2:Y47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6883160-110F-475E-9A3B-21E626D2DF00}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="3.33203125" style="1"/>
+    <col min="1" max="16384" width="3.5703125" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A5C14E-F06D-49D3-B4F2-C198D14E8CD6}">
+  <dimension ref="B2:BY171"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="3.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="47:47" x14ac:dyDescent="0.25">
+      <c r="AU44" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="47:47" x14ac:dyDescent="0.25">
+      <c r="AU45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="39:39" x14ac:dyDescent="0.25">
+      <c r="AM74" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="22:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V93" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
+      <c r="AC93" s="7"/>
+      <c r="AD93" s="7"/>
+      <c r="AE93" s="7"/>
+      <c r="AF93" s="7"/>
+      <c r="AG93" s="7"/>
+      <c r="AH93" s="7"/>
+      <c r="AI93" s="7"/>
+      <c r="AJ93" s="7"/>
+      <c r="AK93" s="7"/>
+      <c r="AL93" s="7"/>
+      <c r="AM93" s="7"/>
+      <c r="AN93" s="7"/>
+      <c r="AO93" s="7"/>
+      <c r="AP93" s="7"/>
+      <c r="AQ93" s="7"/>
+      <c r="AR93" s="7"/>
+      <c r="AS93" s="7"/>
+      <c r="AT93" s="7"/>
+      <c r="AU93" s="7"/>
+      <c r="AV93" s="7"/>
+      <c r="AW93" s="7"/>
+      <c r="AX93" s="7"/>
+      <c r="AY93" s="7"/>
+      <c r="AZ93" s="7"/>
+      <c r="BA93" s="7"/>
+      <c r="BB93" s="7"/>
+      <c r="BC93" s="7"/>
+      <c r="BD93" s="7"/>
+      <c r="BE93" s="7"/>
+      <c r="BF93" s="7"/>
+      <c r="BG93" s="7"/>
+      <c r="BH93" s="7"/>
+      <c r="BI93" s="7"/>
+      <c r="BJ93" s="7"/>
+      <c r="BK93" s="7"/>
+      <c r="BL93" s="7"/>
+      <c r="BM93" s="7"/>
+      <c r="BN93" s="7"/>
+      <c r="BO93" s="7"/>
+      <c r="BP93" s="7"/>
+      <c r="BQ93" s="7"/>
+      <c r="BR93" s="7"/>
+      <c r="BS93" s="7"/>
+      <c r="BT93" s="7"/>
+      <c r="BU93" s="7"/>
+      <c r="BV93" s="7"/>
+      <c r="BW93" s="7"/>
+      <c r="BX93" s="7"/>
+      <c r="BY93" s="8"/>
+    </row>
+    <row r="94" spans="22:77" x14ac:dyDescent="0.25">
+      <c r="V94" s="9"/>
+      <c r="W94" s="10"/>
+      <c r="X94" s="10"/>
+      <c r="Y94" s="10"/>
+      <c r="Z94" s="10"/>
+      <c r="AA94" s="10"/>
+      <c r="AB94" s="10"/>
+      <c r="AC94" s="10"/>
+      <c r="AD94" s="10"/>
+      <c r="AE94" s="10"/>
+      <c r="AF94" s="10"/>
+      <c r="AG94" s="10"/>
+      <c r="AH94" s="10"/>
+      <c r="AI94" s="10"/>
+      <c r="AJ94" s="10"/>
+      <c r="AK94" s="10"/>
+      <c r="AL94" s="10"/>
+      <c r="AM94" s="10"/>
+      <c r="AN94" s="10"/>
+      <c r="AO94" s="10"/>
+      <c r="AP94" s="10"/>
+      <c r="AQ94" s="10"/>
+      <c r="AR94" s="10"/>
+      <c r="AS94" s="10"/>
+      <c r="AT94" s="10"/>
+      <c r="AU94" s="10"/>
+      <c r="AV94" s="10"/>
+      <c r="AW94" s="10"/>
+      <c r="AX94" s="10"/>
+      <c r="AY94" s="10"/>
+      <c r="AZ94" s="10"/>
+      <c r="BA94" s="10"/>
+      <c r="BB94" s="10"/>
+      <c r="BC94" s="10"/>
+      <c r="BD94" s="10"/>
+      <c r="BE94" s="10"/>
+      <c r="BF94" s="10"/>
+      <c r="BG94" s="10"/>
+      <c r="BH94" s="10"/>
+      <c r="BI94" s="10"/>
+      <c r="BJ94" s="10"/>
+      <c r="BK94" s="10"/>
+      <c r="BL94" s="10"/>
+      <c r="BM94" s="10"/>
+      <c r="BN94" s="10"/>
+      <c r="BO94" s="10"/>
+      <c r="BP94" s="10"/>
+      <c r="BQ94" s="10"/>
+      <c r="BR94" s="10"/>
+      <c r="BS94" s="10"/>
+      <c r="BT94" s="10"/>
+      <c r="BU94" s="10"/>
+      <c r="BV94" s="10"/>
+      <c r="BW94" s="10"/>
+      <c r="BX94" s="10"/>
+      <c r="BY94" s="11"/>
+    </row>
+    <row r="95" spans="22:77" x14ac:dyDescent="0.25">
+      <c r="V95" s="9"/>
+      <c r="W95" s="10"/>
+      <c r="X95" s="10"/>
+      <c r="Y95" s="10"/>
+      <c r="Z95" s="10"/>
+      <c r="AA95" s="10"/>
+      <c r="AB95" s="10"/>
+      <c r="AC95" s="10"/>
+      <c r="AD95" s="10"/>
+      <c r="AE95" s="10"/>
+      <c r="AF95" s="10"/>
+      <c r="AG95" s="10"/>
+      <c r="AH95" s="10"/>
+      <c r="AI95" s="10"/>
+      <c r="AJ95" s="10"/>
+      <c r="AK95" s="10"/>
+      <c r="AL95" s="10"/>
+      <c r="AM95" s="10"/>
+      <c r="AN95" s="10"/>
+      <c r="AO95" s="10"/>
+      <c r="AP95" s="10"/>
+      <c r="AQ95" s="10"/>
+      <c r="AR95" s="10"/>
+      <c r="AS95" s="10"/>
+      <c r="AT95" s="10"/>
+      <c r="AU95" s="10"/>
+      <c r="AV95" s="10"/>
+      <c r="AW95" s="10"/>
+      <c r="AX95" s="10"/>
+      <c r="AY95" s="10"/>
+      <c r="AZ95" s="10"/>
+      <c r="BA95" s="10"/>
+      <c r="BB95" s="10"/>
+      <c r="BC95" s="10"/>
+      <c r="BD95" s="10"/>
+      <c r="BE95" s="10"/>
+      <c r="BF95" s="10"/>
+      <c r="BG95" s="10"/>
+      <c r="BH95" s="10"/>
+      <c r="BI95" s="10"/>
+      <c r="BJ95" s="10"/>
+      <c r="BK95" s="10"/>
+      <c r="BL95" s="10"/>
+      <c r="BM95" s="10"/>
+      <c r="BN95" s="10"/>
+      <c r="BO95" s="10"/>
+      <c r="BP95" s="10"/>
+      <c r="BQ95" s="10"/>
+      <c r="BR95" s="10"/>
+      <c r="BS95" s="10"/>
+      <c r="BT95" s="10"/>
+      <c r="BU95" s="10"/>
+      <c r="BV95" s="10"/>
+      <c r="BW95" s="10"/>
+      <c r="BX95" s="10"/>
+      <c r="BY95" s="11"/>
+    </row>
+    <row r="96" spans="22:77" x14ac:dyDescent="0.25">
+      <c r="V96" s="9"/>
+      <c r="W96" s="10"/>
+      <c r="X96" s="10"/>
+      <c r="Y96" s="10"/>
+      <c r="Z96" s="10"/>
+      <c r="AA96" s="10"/>
+      <c r="AB96" s="10"/>
+      <c r="AC96" s="10"/>
+      <c r="AD96" s="10"/>
+      <c r="AE96" s="10"/>
+      <c r="AF96" s="10"/>
+      <c r="AG96" s="10"/>
+      <c r="AH96" s="10"/>
+      <c r="AI96" s="10"/>
+      <c r="AJ96" s="10"/>
+      <c r="AK96" s="10"/>
+      <c r="AL96" s="10"/>
+      <c r="AM96" s="10"/>
+      <c r="AN96" s="10"/>
+      <c r="AO96" s="10"/>
+      <c r="AP96" s="10"/>
+      <c r="AQ96" s="10"/>
+      <c r="AR96" s="10"/>
+      <c r="AS96" s="10"/>
+      <c r="AT96" s="10"/>
+      <c r="AU96" s="10"/>
+      <c r="AV96" s="10"/>
+      <c r="AW96" s="10"/>
+      <c r="AX96" s="10"/>
+      <c r="AY96" s="10"/>
+      <c r="AZ96" s="10"/>
+      <c r="BA96" s="10"/>
+      <c r="BB96" s="10"/>
+      <c r="BC96" s="10"/>
+      <c r="BD96" s="10"/>
+      <c r="BE96" s="10"/>
+      <c r="BF96" s="10"/>
+      <c r="BG96" s="10"/>
+      <c r="BH96" s="10"/>
+      <c r="BI96" s="10"/>
+      <c r="BJ96" s="10"/>
+      <c r="BK96" s="10"/>
+      <c r="BL96" s="10"/>
+      <c r="BM96" s="10"/>
+      <c r="BN96" s="10"/>
+      <c r="BO96" s="10"/>
+      <c r="BP96" s="10"/>
+      <c r="BQ96" s="10"/>
+      <c r="BR96" s="10"/>
+      <c r="BS96" s="10"/>
+      <c r="BT96" s="10"/>
+      <c r="BU96" s="10"/>
+      <c r="BV96" s="10"/>
+      <c r="BW96" s="10"/>
+      <c r="BX96" s="10"/>
+      <c r="BY96" s="11"/>
+    </row>
+    <row r="97" spans="22:77" x14ac:dyDescent="0.25">
+      <c r="V97" s="9"/>
+      <c r="W97" s="10"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="10"/>
+      <c r="Z97" s="10"/>
+      <c r="AA97" s="10"/>
+      <c r="AB97" s="10"/>
+      <c r="AC97" s="10"/>
+      <c r="AD97" s="10"/>
+      <c r="AE97" s="10"/>
+      <c r="AF97" s="10"/>
+      <c r="AG97" s="10"/>
+      <c r="AH97" s="10"/>
+      <c r="AI97" s="10"/>
+      <c r="AJ97" s="10"/>
+      <c r="AK97" s="10"/>
+      <c r="AL97" s="10"/>
+      <c r="AM97" s="10"/>
+      <c r="AN97" s="10"/>
+      <c r="AO97" s="10"/>
+      <c r="AP97" s="10"/>
+      <c r="AQ97" s="10"/>
+      <c r="AR97" s="10"/>
+      <c r="AS97" s="10"/>
+      <c r="AT97" s="10"/>
+      <c r="AU97" s="10"/>
+      <c r="AV97" s="10"/>
+      <c r="AW97" s="10"/>
+      <c r="AX97" s="10"/>
+      <c r="AY97" s="10"/>
+      <c r="AZ97" s="10"/>
+      <c r="BA97" s="10"/>
+      <c r="BB97" s="10"/>
+      <c r="BC97" s="10"/>
+      <c r="BD97" s="10"/>
+      <c r="BE97" s="10"/>
+      <c r="BF97" s="10"/>
+      <c r="BG97" s="10"/>
+      <c r="BH97" s="10"/>
+      <c r="BI97" s="10"/>
+      <c r="BJ97" s="10"/>
+      <c r="BK97" s="10"/>
+      <c r="BL97" s="10"/>
+      <c r="BM97" s="10"/>
+      <c r="BN97" s="10"/>
+      <c r="BO97" s="10"/>
+      <c r="BP97" s="10"/>
+      <c r="BQ97" s="10"/>
+      <c r="BR97" s="10"/>
+      <c r="BS97" s="10"/>
+      <c r="BT97" s="10"/>
+      <c r="BU97" s="10"/>
+      <c r="BV97" s="10"/>
+      <c r="BW97" s="10"/>
+      <c r="BX97" s="10"/>
+      <c r="BY97" s="11"/>
+    </row>
+    <row r="98" spans="22:77" x14ac:dyDescent="0.25">
+      <c r="V98" s="9"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="10"/>
+      <c r="Z98" s="10"/>
+      <c r="AA98" s="10"/>
+      <c r="AB98" s="10"/>
+      <c r="AC98" s="10"/>
+      <c r="AD98" s="10"/>
+      <c r="AE98" s="10"/>
+      <c r="AF98" s="10"/>
+      <c r="AG98" s="10"/>
+      <c r="AH98" s="10"/>
+      <c r="AI98" s="10"/>
+      <c r="AJ98" s="10"/>
+      <c r="AK98" s="10"/>
+      <c r="AL98" s="10"/>
+      <c r="AM98" s="10"/>
+      <c r="AN98" s="10"/>
+      <c r="AO98" s="10"/>
+      <c r="AP98" s="10"/>
+      <c r="AQ98" s="10"/>
+      <c r="AR98" s="10"/>
+      <c r="AS98" s="10"/>
+      <c r="AT98" s="10"/>
+      <c r="AU98" s="10"/>
+      <c r="AV98" s="10"/>
+      <c r="AW98" s="10"/>
+      <c r="AX98" s="10"/>
+      <c r="AY98" s="10"/>
+      <c r="AZ98" s="10"/>
+      <c r="BA98" s="10"/>
+      <c r="BB98" s="10"/>
+      <c r="BC98" s="10"/>
+      <c r="BD98" s="10"/>
+      <c r="BE98" s="10"/>
+      <c r="BF98" s="10"/>
+      <c r="BG98" s="10"/>
+      <c r="BH98" s="10"/>
+      <c r="BI98" s="10"/>
+      <c r="BJ98" s="10"/>
+      <c r="BK98" s="10"/>
+      <c r="BL98" s="10"/>
+      <c r="BM98" s="10"/>
+      <c r="BN98" s="10"/>
+      <c r="BO98" s="10"/>
+      <c r="BP98" s="10"/>
+      <c r="BQ98" s="10"/>
+      <c r="BR98" s="10"/>
+      <c r="BS98" s="10"/>
+      <c r="BT98" s="10"/>
+      <c r="BU98" s="10"/>
+      <c r="BV98" s="10"/>
+      <c r="BW98" s="10"/>
+      <c r="BX98" s="10"/>
+      <c r="BY98" s="11"/>
+    </row>
+    <row r="99" spans="22:77" x14ac:dyDescent="0.25">
+      <c r="V99" s="9"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="10"/>
+      <c r="Z99" s="10"/>
+      <c r="AA99" s="10"/>
+      <c r="AB99" s="10"/>
+      <c r="AC99" s="10"/>
+      <c r="AD99" s="10"/>
+      <c r="AE99" s="10"/>
+      <c r="AF99" s="10"/>
+      <c r="AG99" s="10"/>
+      <c r="AH99" s="10"/>
+      <c r="AI99" s="10"/>
+      <c r="AJ99" s="10"/>
+      <c r="AK99" s="10"/>
+      <c r="AL99" s="10"/>
+      <c r="AM99" s="10"/>
+      <c r="AN99" s="10"/>
+      <c r="AO99" s="10"/>
+      <c r="AP99" s="10"/>
+      <c r="AQ99" s="10"/>
+      <c r="AR99" s="10"/>
+      <c r="AS99" s="10"/>
+      <c r="AT99" s="10"/>
+      <c r="AU99" s="10"/>
+      <c r="AV99" s="10"/>
+      <c r="AW99" s="10"/>
+      <c r="AX99" s="10"/>
+      <c r="AY99" s="10"/>
+      <c r="AZ99" s="10"/>
+      <c r="BA99" s="10"/>
+      <c r="BB99" s="10"/>
+      <c r="BC99" s="10"/>
+      <c r="BD99" s="10"/>
+      <c r="BE99" s="10"/>
+      <c r="BF99" s="10"/>
+      <c r="BG99" s="10"/>
+      <c r="BH99" s="10"/>
+      <c r="BI99" s="10"/>
+      <c r="BJ99" s="10"/>
+      <c r="BK99" s="10"/>
+      <c r="BL99" s="10"/>
+      <c r="BM99" s="10"/>
+      <c r="BN99" s="10"/>
+      <c r="BO99" s="10"/>
+      <c r="BP99" s="10"/>
+      <c r="BQ99" s="10"/>
+      <c r="BR99" s="10"/>
+      <c r="BS99" s="10"/>
+      <c r="BT99" s="10"/>
+      <c r="BU99" s="10"/>
+      <c r="BV99" s="10"/>
+      <c r="BW99" s="10"/>
+      <c r="BX99" s="10"/>
+      <c r="BY99" s="11"/>
+    </row>
+    <row r="100" spans="22:77" x14ac:dyDescent="0.25">
+      <c r="V100" s="9"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="10"/>
+      <c r="Y100" s="10"/>
+      <c r="Z100" s="10"/>
+      <c r="AA100" s="10"/>
+      <c r="AB100" s="10"/>
+      <c r="AC100" s="10"/>
+      <c r="AD100" s="10"/>
+      <c r="AE100" s="10"/>
+      <c r="AF100" s="10"/>
+      <c r="AG100" s="10"/>
+      <c r="AH100" s="10"/>
+      <c r="AI100" s="10"/>
+      <c r="AJ100" s="10"/>
+      <c r="AK100" s="10"/>
+      <c r="AL100" s="10"/>
+      <c r="AM100" s="10"/>
+      <c r="AN100" s="10"/>
+      <c r="AO100" s="10"/>
+      <c r="AP100" s="10"/>
+      <c r="AQ100" s="10"/>
+      <c r="AR100" s="10"/>
+      <c r="AS100" s="10"/>
+      <c r="AT100" s="10"/>
+      <c r="AU100" s="10"/>
+      <c r="AV100" s="10"/>
+      <c r="AW100" s="10"/>
+      <c r="AX100" s="10"/>
+      <c r="AY100" s="10"/>
+      <c r="AZ100" s="10"/>
+      <c r="BA100" s="10"/>
+      <c r="BB100" s="10"/>
+      <c r="BC100" s="10"/>
+      <c r="BD100" s="10"/>
+      <c r="BE100" s="10"/>
+      <c r="BF100" s="10"/>
+      <c r="BG100" s="10"/>
+      <c r="BH100" s="10"/>
+      <c r="BI100" s="10"/>
+      <c r="BJ100" s="10"/>
+      <c r="BK100" s="10"/>
+      <c r="BL100" s="10"/>
+      <c r="BM100" s="10"/>
+      <c r="BN100" s="10"/>
+      <c r="BO100" s="10"/>
+      <c r="BP100" s="10"/>
+      <c r="BQ100" s="10"/>
+      <c r="BR100" s="10"/>
+      <c r="BS100" s="10"/>
+      <c r="BT100" s="10"/>
+      <c r="BU100" s="10"/>
+      <c r="BV100" s="10"/>
+      <c r="BW100" s="10"/>
+      <c r="BX100" s="10"/>
+      <c r="BY100" s="11"/>
+    </row>
+    <row r="101" spans="22:77" x14ac:dyDescent="0.25">
+      <c r="V101" s="9"/>
+      <c r="W101" s="10"/>
+      <c r="X101" s="10"/>
+      <c r="Y101" s="10"/>
+      <c r="Z101" s="10"/>
+      <c r="AA101" s="10"/>
+      <c r="AB101" s="10"/>
+      <c r="AC101" s="10"/>
+      <c r="AD101" s="10"/>
+      <c r="AE101" s="10"/>
+      <c r="AF101" s="10"/>
+      <c r="AG101" s="10"/>
+      <c r="AH101" s="10"/>
+      <c r="AI101" s="10"/>
+      <c r="AJ101" s="10"/>
+      <c r="AK101" s="10"/>
+      <c r="AL101" s="10"/>
+      <c r="AM101" s="10"/>
+      <c r="AN101" s="10"/>
+      <c r="AO101" s="10"/>
+      <c r="AP101" s="10"/>
+      <c r="AQ101" s="10"/>
+      <c r="AR101" s="10"/>
+      <c r="AS101" s="10"/>
+      <c r="AT101" s="10"/>
+      <c r="AU101" s="10"/>
+      <c r="AV101" s="10"/>
+      <c r="AW101" s="10"/>
+      <c r="AX101" s="10"/>
+      <c r="AY101" s="10"/>
+      <c r="AZ101" s="10"/>
+      <c r="BA101" s="10"/>
+      <c r="BB101" s="10"/>
+      <c r="BC101" s="10"/>
+      <c r="BD101" s="10"/>
+      <c r="BE101" s="10"/>
+      <c r="BF101" s="10"/>
+      <c r="BG101" s="10"/>
+      <c r="BH101" s="10"/>
+      <c r="BI101" s="10"/>
+      <c r="BJ101" s="10"/>
+      <c r="BK101" s="10"/>
+      <c r="BL101" s="10"/>
+      <c r="BM101" s="10"/>
+      <c r="BN101" s="10"/>
+      <c r="BO101" s="10"/>
+      <c r="BP101" s="10"/>
+      <c r="BQ101" s="10"/>
+      <c r="BR101" s="10"/>
+      <c r="BS101" s="10"/>
+      <c r="BT101" s="10"/>
+      <c r="BU101" s="10"/>
+      <c r="BV101" s="10"/>
+      <c r="BW101" s="10"/>
+      <c r="BX101" s="10"/>
+      <c r="BY101" s="11"/>
+    </row>
+    <row r="102" spans="22:77" x14ac:dyDescent="0.25">
+      <c r="V102" s="12"/>
+      <c r="W102" s="13"/>
+      <c r="X102" s="13"/>
+      <c r="Y102" s="13"/>
+      <c r="Z102" s="13"/>
+      <c r="AA102" s="13"/>
+      <c r="AB102" s="13"/>
+      <c r="AC102" s="13"/>
+      <c r="AD102" s="13"/>
+      <c r="AE102" s="13"/>
+      <c r="AF102" s="13"/>
+      <c r="AG102" s="13"/>
+      <c r="AH102" s="13"/>
+      <c r="AI102" s="13"/>
+      <c r="AJ102" s="13"/>
+      <c r="AK102" s="13"/>
+      <c r="AL102" s="13"/>
+      <c r="AM102" s="13"/>
+      <c r="AN102" s="13"/>
+      <c r="AO102" s="13"/>
+      <c r="AP102" s="13"/>
+      <c r="AQ102" s="13"/>
+      <c r="AR102" s="13"/>
+      <c r="AS102" s="13"/>
+      <c r="AT102" s="13"/>
+      <c r="AU102" s="13"/>
+      <c r="AV102" s="13"/>
+      <c r="AW102" s="13"/>
+      <c r="AX102" s="13"/>
+      <c r="AY102" s="13"/>
+      <c r="AZ102" s="13"/>
+      <c r="BA102" s="13"/>
+      <c r="BB102" s="13"/>
+      <c r="BC102" s="13"/>
+      <c r="BD102" s="13"/>
+      <c r="BE102" s="13"/>
+      <c r="BF102" s="13"/>
+      <c r="BG102" s="13"/>
+      <c r="BH102" s="13"/>
+      <c r="BI102" s="13"/>
+      <c r="BJ102" s="13"/>
+      <c r="BK102" s="13"/>
+      <c r="BL102" s="13"/>
+      <c r="BM102" s="13"/>
+      <c r="BN102" s="13"/>
+      <c r="BO102" s="13"/>
+      <c r="BP102" s="13"/>
+      <c r="BQ102" s="13"/>
+      <c r="BR102" s="13"/>
+      <c r="BS102" s="13"/>
+      <c r="BT102" s="13"/>
+      <c r="BU102" s="13"/>
+      <c r="BV102" s="13"/>
+      <c r="BW102" s="13"/>
+      <c r="BX102" s="13"/>
+      <c r="BY102" s="14"/>
+    </row>
+    <row r="120" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC120" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="19:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S131" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T131" s="7"/>
+      <c r="U131" s="7"/>
+      <c r="V131" s="7"/>
+      <c r="W131" s="7"/>
+      <c r="X131" s="7"/>
+      <c r="Y131" s="7"/>
+      <c r="Z131" s="7"/>
+      <c r="AA131" s="7"/>
+      <c r="AB131" s="7"/>
+      <c r="AC131" s="7"/>
+      <c r="AD131" s="7"/>
+      <c r="AE131" s="7"/>
+      <c r="AF131" s="7"/>
+      <c r="AG131" s="7"/>
+      <c r="AH131" s="7"/>
+      <c r="AI131" s="7"/>
+      <c r="AJ131" s="7"/>
+      <c r="AK131" s="7"/>
+      <c r="AL131" s="7"/>
+      <c r="AM131" s="7"/>
+      <c r="AN131" s="7"/>
+      <c r="AO131" s="8"/>
+      <c r="AQ131" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="19:43" x14ac:dyDescent="0.25">
+      <c r="S132" s="9"/>
+      <c r="T132" s="10"/>
+      <c r="U132" s="10"/>
+      <c r="V132" s="10"/>
+      <c r="W132" s="10"/>
+      <c r="X132" s="10"/>
+      <c r="Y132" s="10"/>
+      <c r="Z132" s="10"/>
+      <c r="AA132" s="10"/>
+      <c r="AB132" s="10"/>
+      <c r="AC132" s="10"/>
+      <c r="AD132" s="10"/>
+      <c r="AE132" s="10"/>
+      <c r="AF132" s="10"/>
+      <c r="AG132" s="10"/>
+      <c r="AH132" s="10"/>
+      <c r="AI132" s="10"/>
+      <c r="AJ132" s="10"/>
+      <c r="AK132" s="10"/>
+      <c r="AL132" s="10"/>
+      <c r="AM132" s="10"/>
+      <c r="AN132" s="10"/>
+      <c r="AO132" s="11"/>
+    </row>
+    <row r="133" spans="19:43" x14ac:dyDescent="0.25">
+      <c r="S133" s="9"/>
+      <c r="T133" s="10"/>
+      <c r="U133" s="10"/>
+      <c r="V133" s="10"/>
+      <c r="W133" s="10"/>
+      <c r="X133" s="10"/>
+      <c r="Y133" s="10"/>
+      <c r="Z133" s="10"/>
+      <c r="AA133" s="10"/>
+      <c r="AB133" s="10"/>
+      <c r="AC133" s="10"/>
+      <c r="AD133" s="10"/>
+      <c r="AE133" s="10"/>
+      <c r="AF133" s="10"/>
+      <c r="AG133" s="10"/>
+      <c r="AH133" s="10"/>
+      <c r="AI133" s="10"/>
+      <c r="AJ133" s="10"/>
+      <c r="AK133" s="10"/>
+      <c r="AL133" s="10"/>
+      <c r="AM133" s="10"/>
+      <c r="AN133" s="10"/>
+      <c r="AO133" s="11"/>
+    </row>
+    <row r="134" spans="19:43" x14ac:dyDescent="0.25">
+      <c r="S134" s="9"/>
+      <c r="T134" s="10"/>
+      <c r="U134" s="10"/>
+      <c r="V134" s="10"/>
+      <c r="W134" s="10"/>
+      <c r="X134" s="10"/>
+      <c r="Y134" s="10"/>
+      <c r="Z134" s="10"/>
+      <c r="AA134" s="10"/>
+      <c r="AB134" s="10"/>
+      <c r="AC134" s="10"/>
+      <c r="AD134" s="10"/>
+      <c r="AE134" s="10"/>
+      <c r="AF134" s="10"/>
+      <c r="AG134" s="10"/>
+      <c r="AH134" s="10"/>
+      <c r="AI134" s="10"/>
+      <c r="AJ134" s="10"/>
+      <c r="AK134" s="10"/>
+      <c r="AL134" s="10"/>
+      <c r="AM134" s="10"/>
+      <c r="AN134" s="10"/>
+      <c r="AO134" s="11"/>
+    </row>
+    <row r="135" spans="19:43" x14ac:dyDescent="0.25">
+      <c r="S135" s="9"/>
+      <c r="T135" s="10"/>
+      <c r="U135" s="10"/>
+      <c r="V135" s="10"/>
+      <c r="W135" s="10"/>
+      <c r="X135" s="10"/>
+      <c r="Y135" s="10"/>
+      <c r="Z135" s="10"/>
+      <c r="AA135" s="10"/>
+      <c r="AB135" s="10"/>
+      <c r="AC135" s="10"/>
+      <c r="AD135" s="10"/>
+      <c r="AE135" s="10"/>
+      <c r="AF135" s="10"/>
+      <c r="AG135" s="10"/>
+      <c r="AH135" s="10"/>
+      <c r="AI135" s="10"/>
+      <c r="AJ135" s="10"/>
+      <c r="AK135" s="10"/>
+      <c r="AL135" s="10"/>
+      <c r="AM135" s="10"/>
+      <c r="AN135" s="10"/>
+      <c r="AO135" s="11"/>
+    </row>
+    <row r="136" spans="19:43" x14ac:dyDescent="0.25">
+      <c r="S136" s="9"/>
+      <c r="T136" s="10"/>
+      <c r="U136" s="10"/>
+      <c r="V136" s="10"/>
+      <c r="W136" s="10"/>
+      <c r="X136" s="10"/>
+      <c r="Y136" s="10"/>
+      <c r="Z136" s="10"/>
+      <c r="AA136" s="10"/>
+      <c r="AB136" s="10"/>
+      <c r="AC136" s="10"/>
+      <c r="AD136" s="10"/>
+      <c r="AE136" s="10"/>
+      <c r="AF136" s="10"/>
+      <c r="AG136" s="10"/>
+      <c r="AH136" s="10"/>
+      <c r="AI136" s="10"/>
+      <c r="AJ136" s="10"/>
+      <c r="AK136" s="10"/>
+      <c r="AL136" s="10"/>
+      <c r="AM136" s="10"/>
+      <c r="AN136" s="10"/>
+      <c r="AO136" s="11"/>
+    </row>
+    <row r="137" spans="19:43" x14ac:dyDescent="0.25">
+      <c r="S137" s="9"/>
+      <c r="T137" s="10"/>
+      <c r="U137" s="10"/>
+      <c r="V137" s="10"/>
+      <c r="W137" s="10"/>
+      <c r="X137" s="10"/>
+      <c r="Y137" s="10"/>
+      <c r="Z137" s="10"/>
+      <c r="AA137" s="10"/>
+      <c r="AB137" s="10"/>
+      <c r="AC137" s="10"/>
+      <c r="AD137" s="10"/>
+      <c r="AE137" s="10"/>
+      <c r="AF137" s="10"/>
+      <c r="AG137" s="10"/>
+      <c r="AH137" s="10"/>
+      <c r="AI137" s="10"/>
+      <c r="AJ137" s="10"/>
+      <c r="AK137" s="10"/>
+      <c r="AL137" s="10"/>
+      <c r="AM137" s="10"/>
+      <c r="AN137" s="10"/>
+      <c r="AO137" s="11"/>
+    </row>
+    <row r="138" spans="19:43" x14ac:dyDescent="0.25">
+      <c r="S138" s="9"/>
+      <c r="T138" s="10"/>
+      <c r="U138" s="10"/>
+      <c r="V138" s="10"/>
+      <c r="W138" s="10"/>
+      <c r="X138" s="10"/>
+      <c r="Y138" s="10"/>
+      <c r="Z138" s="10"/>
+      <c r="AA138" s="10"/>
+      <c r="AB138" s="10"/>
+      <c r="AC138" s="10"/>
+      <c r="AD138" s="10"/>
+      <c r="AE138" s="10"/>
+      <c r="AF138" s="10"/>
+      <c r="AG138" s="10"/>
+      <c r="AH138" s="10"/>
+      <c r="AI138" s="10"/>
+      <c r="AJ138" s="10"/>
+      <c r="AK138" s="10"/>
+      <c r="AL138" s="10"/>
+      <c r="AM138" s="10"/>
+      <c r="AN138" s="10"/>
+      <c r="AO138" s="11"/>
+    </row>
+    <row r="139" spans="19:43" x14ac:dyDescent="0.25">
+      <c r="S139" s="9"/>
+      <c r="T139" s="10"/>
+      <c r="U139" s="10"/>
+      <c r="V139" s="10"/>
+      <c r="W139" s="10"/>
+      <c r="X139" s="10"/>
+      <c r="Y139" s="10"/>
+      <c r="Z139" s="10"/>
+      <c r="AA139" s="10"/>
+      <c r="AB139" s="10"/>
+      <c r="AC139" s="10"/>
+      <c r="AD139" s="10"/>
+      <c r="AE139" s="10"/>
+      <c r="AF139" s="10"/>
+      <c r="AG139" s="10"/>
+      <c r="AH139" s="10"/>
+      <c r="AI139" s="10"/>
+      <c r="AJ139" s="10"/>
+      <c r="AK139" s="10"/>
+      <c r="AL139" s="10"/>
+      <c r="AM139" s="10"/>
+      <c r="AN139" s="10"/>
+      <c r="AO139" s="11"/>
+    </row>
+    <row r="140" spans="19:43" x14ac:dyDescent="0.25">
+      <c r="S140" s="9"/>
+      <c r="T140" s="10"/>
+      <c r="U140" s="10"/>
+      <c r="V140" s="10"/>
+      <c r="W140" s="10"/>
+      <c r="X140" s="10"/>
+      <c r="Y140" s="10"/>
+      <c r="Z140" s="10"/>
+      <c r="AA140" s="10"/>
+      <c r="AB140" s="10"/>
+      <c r="AC140" s="10"/>
+      <c r="AD140" s="10"/>
+      <c r="AE140" s="10"/>
+      <c r="AF140" s="10"/>
+      <c r="AG140" s="10"/>
+      <c r="AH140" s="10"/>
+      <c r="AI140" s="10"/>
+      <c r="AJ140" s="10"/>
+      <c r="AK140" s="10"/>
+      <c r="AL140" s="10"/>
+      <c r="AM140" s="10"/>
+      <c r="AN140" s="10"/>
+      <c r="AO140" s="11"/>
+    </row>
+    <row r="141" spans="19:43" x14ac:dyDescent="0.25">
+      <c r="S141" s="9"/>
+      <c r="T141" s="10"/>
+      <c r="U141" s="10"/>
+      <c r="V141" s="10"/>
+      <c r="W141" s="10"/>
+      <c r="X141" s="10"/>
+      <c r="Y141" s="10"/>
+      <c r="Z141" s="10"/>
+      <c r="AA141" s="10"/>
+      <c r="AB141" s="10"/>
+      <c r="AC141" s="10"/>
+      <c r="AD141" s="10"/>
+      <c r="AE141" s="10"/>
+      <c r="AF141" s="10"/>
+      <c r="AG141" s="10"/>
+      <c r="AH141" s="10"/>
+      <c r="AI141" s="10"/>
+      <c r="AJ141" s="10"/>
+      <c r="AK141" s="10"/>
+      <c r="AL141" s="10"/>
+      <c r="AM141" s="10"/>
+      <c r="AN141" s="10"/>
+      <c r="AO141" s="11"/>
+    </row>
+    <row r="142" spans="19:43" x14ac:dyDescent="0.25">
+      <c r="S142" s="12"/>
+      <c r="T142" s="13"/>
+      <c r="U142" s="13"/>
+      <c r="V142" s="13"/>
+      <c r="W142" s="13"/>
+      <c r="X142" s="13"/>
+      <c r="Y142" s="13"/>
+      <c r="Z142" s="13"/>
+      <c r="AA142" s="13"/>
+      <c r="AB142" s="13"/>
+      <c r="AC142" s="13"/>
+      <c r="AD142" s="13"/>
+      <c r="AE142" s="13"/>
+      <c r="AF142" s="13"/>
+      <c r="AG142" s="13"/>
+      <c r="AH142" s="13"/>
+      <c r="AI142" s="13"/>
+      <c r="AJ142" s="13"/>
+      <c r="AK142" s="13"/>
+      <c r="AL142" s="13"/>
+      <c r="AM142" s="13"/>
+      <c r="AN142" s="13"/>
+      <c r="AO142" s="14"/>
+    </row>
+    <row r="159" spans="12:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L159" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="7"/>
+      <c r="T159" s="7"/>
+      <c r="U159" s="7"/>
+      <c r="V159" s="7"/>
+      <c r="W159" s="7"/>
+      <c r="X159" s="7"/>
+      <c r="Y159" s="7"/>
+      <c r="Z159" s="7"/>
+      <c r="AA159" s="7"/>
+      <c r="AB159" s="7"/>
+      <c r="AC159" s="8"/>
+    </row>
+    <row r="160" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="L160" s="9"/>
+      <c r="M160" s="10"/>
+      <c r="N160" s="10"/>
+      <c r="O160" s="10"/>
+      <c r="P160" s="10"/>
+      <c r="Q160" s="10"/>
+      <c r="R160" s="10"/>
+      <c r="S160" s="10"/>
+      <c r="T160" s="10"/>
+      <c r="U160" s="10"/>
+      <c r="V160" s="10"/>
+      <c r="W160" s="10"/>
+      <c r="X160" s="10"/>
+      <c r="Y160" s="10"/>
+      <c r="Z160" s="10"/>
+      <c r="AA160" s="10"/>
+      <c r="AB160" s="10"/>
+      <c r="AC160" s="11"/>
+    </row>
+    <row r="161" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="L161" s="9"/>
+      <c r="M161" s="10"/>
+      <c r="N161" s="10"/>
+      <c r="O161" s="10"/>
+      <c r="P161" s="10"/>
+      <c r="Q161" s="10"/>
+      <c r="R161" s="10"/>
+      <c r="S161" s="10"/>
+      <c r="T161" s="10"/>
+      <c r="U161" s="10"/>
+      <c r="V161" s="10"/>
+      <c r="W161" s="10"/>
+      <c r="X161" s="10"/>
+      <c r="Y161" s="10"/>
+      <c r="Z161" s="10"/>
+      <c r="AA161" s="10"/>
+      <c r="AB161" s="10"/>
+      <c r="AC161" s="11"/>
+    </row>
+    <row r="162" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="L162" s="9"/>
+      <c r="M162" s="10"/>
+      <c r="N162" s="10"/>
+      <c r="O162" s="10"/>
+      <c r="P162" s="10"/>
+      <c r="Q162" s="10"/>
+      <c r="R162" s="10"/>
+      <c r="S162" s="10"/>
+      <c r="T162" s="10"/>
+      <c r="U162" s="10"/>
+      <c r="V162" s="10"/>
+      <c r="W162" s="10"/>
+      <c r="X162" s="10"/>
+      <c r="Y162" s="10"/>
+      <c r="Z162" s="10"/>
+      <c r="AA162" s="10"/>
+      <c r="AB162" s="10"/>
+      <c r="AC162" s="11"/>
+    </row>
+    <row r="163" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="L163" s="9"/>
+      <c r="M163" s="10"/>
+      <c r="N163" s="10"/>
+      <c r="O163" s="10"/>
+      <c r="P163" s="10"/>
+      <c r="Q163" s="10"/>
+      <c r="R163" s="10"/>
+      <c r="S163" s="10"/>
+      <c r="T163" s="10"/>
+      <c r="U163" s="10"/>
+      <c r="V163" s="10"/>
+      <c r="W163" s="10"/>
+      <c r="X163" s="10"/>
+      <c r="Y163" s="10"/>
+      <c r="Z163" s="10"/>
+      <c r="AA163" s="10"/>
+      <c r="AB163" s="10"/>
+      <c r="AC163" s="11"/>
+    </row>
+    <row r="164" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="L164" s="9"/>
+      <c r="M164" s="10"/>
+      <c r="N164" s="10"/>
+      <c r="O164" s="10"/>
+      <c r="P164" s="10"/>
+      <c r="Q164" s="10"/>
+      <c r="R164" s="10"/>
+      <c r="S164" s="10"/>
+      <c r="T164" s="10"/>
+      <c r="U164" s="10"/>
+      <c r="V164" s="10"/>
+      <c r="W164" s="10"/>
+      <c r="X164" s="10"/>
+      <c r="Y164" s="10"/>
+      <c r="Z164" s="10"/>
+      <c r="AA164" s="10"/>
+      <c r="AB164" s="10"/>
+      <c r="AC164" s="11"/>
+    </row>
+    <row r="165" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="L165" s="9"/>
+      <c r="M165" s="10"/>
+      <c r="N165" s="10"/>
+      <c r="O165" s="10"/>
+      <c r="P165" s="10"/>
+      <c r="Q165" s="10"/>
+      <c r="R165" s="10"/>
+      <c r="S165" s="10"/>
+      <c r="T165" s="10"/>
+      <c r="U165" s="10"/>
+      <c r="V165" s="10"/>
+      <c r="W165" s="10"/>
+      <c r="X165" s="10"/>
+      <c r="Y165" s="10"/>
+      <c r="Z165" s="10"/>
+      <c r="AA165" s="10"/>
+      <c r="AB165" s="10"/>
+      <c r="AC165" s="11"/>
+    </row>
+    <row r="166" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="L166" s="9"/>
+      <c r="M166" s="10"/>
+      <c r="N166" s="10"/>
+      <c r="O166" s="10"/>
+      <c r="P166" s="10"/>
+      <c r="Q166" s="10"/>
+      <c r="R166" s="10"/>
+      <c r="S166" s="10"/>
+      <c r="T166" s="10"/>
+      <c r="U166" s="10"/>
+      <c r="V166" s="10"/>
+      <c r="W166" s="10"/>
+      <c r="X166" s="10"/>
+      <c r="Y166" s="10"/>
+      <c r="Z166" s="10"/>
+      <c r="AA166" s="10"/>
+      <c r="AB166" s="10"/>
+      <c r="AC166" s="11"/>
+    </row>
+    <row r="167" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="L167" s="9"/>
+      <c r="M167" s="10"/>
+      <c r="N167" s="10"/>
+      <c r="O167" s="10"/>
+      <c r="P167" s="10"/>
+      <c r="Q167" s="10"/>
+      <c r="R167" s="10"/>
+      <c r="S167" s="10"/>
+      <c r="T167" s="10"/>
+      <c r="U167" s="10"/>
+      <c r="V167" s="10"/>
+      <c r="W167" s="10"/>
+      <c r="X167" s="10"/>
+      <c r="Y167" s="10"/>
+      <c r="Z167" s="10"/>
+      <c r="AA167" s="10"/>
+      <c r="AB167" s="10"/>
+      <c r="AC167" s="11"/>
+    </row>
+    <row r="168" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="L168" s="9"/>
+      <c r="M168" s="10"/>
+      <c r="N168" s="10"/>
+      <c r="O168" s="10"/>
+      <c r="P168" s="10"/>
+      <c r="Q168" s="10"/>
+      <c r="R168" s="10"/>
+      <c r="S168" s="10"/>
+      <c r="T168" s="10"/>
+      <c r="U168" s="10"/>
+      <c r="V168" s="10"/>
+      <c r="W168" s="10"/>
+      <c r="X168" s="10"/>
+      <c r="Y168" s="10"/>
+      <c r="Z168" s="10"/>
+      <c r="AA168" s="10"/>
+      <c r="AB168" s="10"/>
+      <c r="AC168" s="11"/>
+    </row>
+    <row r="169" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="L169" s="12"/>
+      <c r="M169" s="13"/>
+      <c r="N169" s="13"/>
+      <c r="O169" s="13"/>
+      <c r="P169" s="13"/>
+      <c r="Q169" s="13"/>
+      <c r="R169" s="13"/>
+      <c r="S169" s="13"/>
+      <c r="T169" s="13"/>
+      <c r="U169" s="13"/>
+      <c r="V169" s="13"/>
+      <c r="W169" s="13"/>
+      <c r="X169" s="13"/>
+      <c r="Y169" s="13"/>
+      <c r="Z169" s="13"/>
+      <c r="AA169" s="13"/>
+      <c r="AB169" s="13"/>
+      <c r="AC169" s="14"/>
+    </row>
+    <row r="171" spans="12:29" x14ac:dyDescent="0.25">
+      <c r="S171" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="V93:BY102"/>
+    <mergeCell ref="S131:AO142"/>
+    <mergeCell ref="L159:AC169"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F126CCBB-E89B-4012-91B9-284D5C9D876A}">
+  <dimension ref="B2:V66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="3.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="V8" s="3"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="V10" s="4"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="V12" s="4"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="Y37" s="1" t="s">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="Y38" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D47" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1290,8 +5133,1814 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <ignoredErrors>
-    <ignoredError sqref="D16 D47" numberStoredAsText="1"/>
+    <ignoredError sqref="D16 D66" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8B62C3-4B7C-4252-974A-FC7122FD80FE}">
+  <dimension ref="B2:AH52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="3.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="16"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="19"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="19"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="19"/>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="19"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="19"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="19"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="19"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="19"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="19"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="19"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="19"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="19"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="19"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="19"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="19"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="19"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="19"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="19"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="19"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="19"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="19"/>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="19"/>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="19"/>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="19"/>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="19"/>
+    </row>
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="19"/>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="19"/>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="19"/>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="19"/>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="19"/>
+    </row>
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="19"/>
+    </row>
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="19"/>
+    </row>
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="19"/>
+    </row>
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="19"/>
+    </row>
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="19"/>
+    </row>
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="19"/>
+    </row>
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="19"/>
+    </row>
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="18"/>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="19"/>
+    </row>
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
+      <c r="AE41" s="18"/>
+      <c r="AF41" s="18"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="19"/>
+    </row>
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="19"/>
+    </row>
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="18"/>
+      <c r="AB43" s="18"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="18"/>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="19"/>
+    </row>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="18"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="18"/>
+      <c r="AG44" s="18"/>
+      <c r="AH44" s="19"/>
+    </row>
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="18"/>
+      <c r="AA45" s="18"/>
+      <c r="AB45" s="18"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="18"/>
+      <c r="AE45" s="18"/>
+      <c r="AF45" s="18"/>
+      <c r="AG45" s="18"/>
+      <c r="AH45" s="19"/>
+    </row>
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="18"/>
+      <c r="AA46" s="18"/>
+      <c r="AB46" s="18"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="18"/>
+      <c r="AE46" s="18"/>
+      <c r="AF46" s="18"/>
+      <c r="AG46" s="18"/>
+      <c r="AH46" s="19"/>
+    </row>
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="18"/>
+      <c r="AA47" s="18"/>
+      <c r="AB47" s="18"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="18"/>
+      <c r="AE47" s="18"/>
+      <c r="AF47" s="18"/>
+      <c r="AG47" s="18"/>
+      <c r="AH47" s="19"/>
+    </row>
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18"/>
+      <c r="Y48" s="18"/>
+      <c r="Z48" s="18"/>
+      <c r="AA48" s="18"/>
+      <c r="AB48" s="18"/>
+      <c r="AC48" s="18"/>
+      <c r="AD48" s="18"/>
+      <c r="AE48" s="18"/>
+      <c r="AF48" s="18"/>
+      <c r="AG48" s="18"/>
+      <c r="AH48" s="19"/>
+    </row>
+    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="18"/>
+      <c r="AA49" s="18"/>
+      <c r="AB49" s="18"/>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="18"/>
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="19"/>
+    </row>
+    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="19"/>
+    </row>
+    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="18"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="19"/>
+    </row>
+    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B52" s="20"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="21"/>
+      <c r="AC52" s="21"/>
+      <c r="AD52" s="21"/>
+      <c r="AE52" s="21"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="21"/>
+      <c r="AH52" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:AH52"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>